--- a/Data/Excel_Wide/camino_routes_wide.xlsx
+++ b/Data/Excel_Wide/camino_routes_wide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X225"/>
+  <dimension ref="A1:Y227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,6 +551,11 @@
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
+          <t>Sin establecer</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
@@ -568,22 +573,22 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>566</v>
+        <v>1132</v>
       </c>
       <c r="E2" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="G2" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="H2" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -628,7 +633,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>643</v>
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1286</v>
       </c>
     </row>
     <row r="3">
@@ -644,28 +652,28 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>1124</v>
+        <v>2248</v>
       </c>
       <c r="E3" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>157</v>
+        <v>314</v>
       </c>
       <c r="H3" t="n">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="I3" t="n">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="J3" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="K3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -704,7 +712,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>1401</v>
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>2802</v>
       </c>
     </row>
     <row r="4">
@@ -720,25 +731,25 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>2349</v>
+        <v>4698</v>
       </c>
       <c r="E4" t="n">
-        <v>92</v>
+        <v>184</v>
       </c>
       <c r="F4" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="G4" t="n">
-        <v>368</v>
+        <v>736</v>
       </c>
       <c r="H4" t="n">
-        <v>103</v>
+        <v>206</v>
       </c>
       <c r="I4" t="n">
-        <v>141</v>
+        <v>282</v>
       </c>
       <c r="J4" t="n">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -780,7 +791,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>3105</v>
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>6210</v>
       </c>
     </row>
     <row r="5">
@@ -796,28 +810,28 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>12024</v>
+        <v>24048</v>
       </c>
       <c r="E5" t="n">
-        <v>735</v>
+        <v>1470</v>
       </c>
       <c r="F5" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G5" t="n">
-        <v>1990</v>
+        <v>3980</v>
       </c>
       <c r="H5" t="n">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="I5" t="n">
-        <v>290</v>
+        <v>580</v>
       </c>
       <c r="J5" t="n">
-        <v>142</v>
+        <v>284</v>
       </c>
       <c r="K5" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -856,7 +870,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>15554</v>
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>31108</v>
       </c>
     </row>
     <row r="6">
@@ -872,31 +889,31 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>13485</v>
+        <v>26970</v>
       </c>
       <c r="E6" t="n">
-        <v>704</v>
+        <v>1408</v>
       </c>
       <c r="F6" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="G6" t="n">
-        <v>1499</v>
+        <v>2998</v>
       </c>
       <c r="H6" t="n">
-        <v>545</v>
+        <v>1090</v>
       </c>
       <c r="I6" t="n">
-        <v>326</v>
+        <v>652</v>
       </c>
       <c r="J6" t="n">
-        <v>162</v>
+        <v>324</v>
       </c>
       <c r="K6" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -932,7 +949,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>16860</v>
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>33720</v>
       </c>
     </row>
     <row r="7">
@@ -948,28 +968,28 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>15983</v>
+        <v>31966</v>
       </c>
       <c r="E7" t="n">
-        <v>803</v>
+        <v>1606</v>
       </c>
       <c r="F7" t="n">
-        <v>315</v>
+        <v>630</v>
       </c>
       <c r="G7" t="n">
-        <v>1094</v>
+        <v>2188</v>
       </c>
       <c r="H7" t="n">
-        <v>740</v>
+        <v>1480</v>
       </c>
       <c r="I7" t="n">
-        <v>258</v>
+        <v>516</v>
       </c>
       <c r="J7" t="n">
-        <v>87</v>
+        <v>174</v>
       </c>
       <c r="K7" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1008,7 +1028,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>19295</v>
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>38590</v>
       </c>
     </row>
     <row r="8">
@@ -1024,28 +1047,28 @@
         <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>24798</v>
+        <v>49596</v>
       </c>
       <c r="E8" t="n">
-        <v>1384</v>
+        <v>2768</v>
       </c>
       <c r="F8" t="n">
-        <v>478</v>
+        <v>956</v>
       </c>
       <c r="G8" t="n">
-        <v>2837</v>
+        <v>5674</v>
       </c>
       <c r="H8" t="n">
-        <v>1891</v>
+        <v>3782</v>
       </c>
       <c r="I8" t="n">
-        <v>364</v>
+        <v>728</v>
       </c>
       <c r="J8" t="n">
-        <v>110</v>
+        <v>220</v>
       </c>
       <c r="K8" t="n">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1084,7 +1107,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>31891</v>
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>63782</v>
       </c>
     </row>
     <row r="9">
@@ -1100,31 +1126,31 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>31264</v>
+        <v>62528</v>
       </c>
       <c r="E9" t="n">
-        <v>3830</v>
+        <v>7660</v>
       </c>
       <c r="F9" t="n">
-        <v>3800</v>
+        <v>7600</v>
       </c>
       <c r="G9" t="n">
-        <v>3303</v>
+        <v>6606</v>
       </c>
       <c r="H9" t="n">
-        <v>1962</v>
+        <v>3924</v>
       </c>
       <c r="I9" t="n">
-        <v>1045</v>
+        <v>2090</v>
       </c>
       <c r="J9" t="n">
-        <v>123</v>
+        <v>246</v>
       </c>
       <c r="K9" t="n">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="L9" t="n">
-        <v>247</v>
+        <v>494</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -1160,7 +1186,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>45601</v>
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>91202</v>
       </c>
     </row>
     <row r="10">
@@ -1176,31 +1205,31 @@
         <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>18919</v>
+        <v>37838</v>
       </c>
       <c r="E10" t="n">
-        <v>777</v>
+        <v>1554</v>
       </c>
       <c r="F10" t="n">
-        <v>303</v>
+        <v>606</v>
       </c>
       <c r="G10" t="n">
-        <v>1717</v>
+        <v>3434</v>
       </c>
       <c r="H10" t="n">
-        <v>630</v>
+        <v>1260</v>
       </c>
       <c r="I10" t="n">
-        <v>324</v>
+        <v>648</v>
       </c>
       <c r="J10" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K10" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="L10" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1236,7 +1265,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>22752</v>
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>45504</v>
       </c>
     </row>
     <row r="11">
@@ -1252,31 +1284,31 @@
         <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>11964</v>
+        <v>23928</v>
       </c>
       <c r="E11" t="n">
-        <v>684</v>
+        <v>1368</v>
       </c>
       <c r="F11" t="n">
-        <v>203</v>
+        <v>406</v>
       </c>
       <c r="G11" t="n">
-        <v>1123</v>
+        <v>2246</v>
       </c>
       <c r="H11" t="n">
-        <v>436</v>
+        <v>872</v>
       </c>
       <c r="I11" t="n">
-        <v>107</v>
+        <v>214</v>
       </c>
       <c r="J11" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K11" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="L11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1312,7 +1344,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>14556</v>
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>29112</v>
       </c>
     </row>
     <row r="12">
@@ -1328,31 +1363,31 @@
         <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>3512</v>
+        <v>7024</v>
       </c>
       <c r="E12" t="n">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="F12" t="n">
-        <v>87</v>
+        <v>174</v>
       </c>
       <c r="G12" t="n">
-        <v>352</v>
+        <v>704</v>
       </c>
       <c r="H12" t="n">
-        <v>146</v>
+        <v>292</v>
       </c>
       <c r="I12" t="n">
-        <v>98</v>
+        <v>196</v>
       </c>
       <c r="J12" t="n">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1388,7 +1423,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>4410</v>
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>8820</v>
       </c>
     </row>
     <row r="13">
@@ -1404,31 +1442,31 @@
         <v>12</v>
       </c>
       <c r="D13" t="n">
-        <v>2649</v>
+        <v>5298</v>
       </c>
       <c r="E13" t="n">
-        <v>98</v>
+        <v>196</v>
       </c>
       <c r="F13" t="n">
-        <v>149</v>
+        <v>298</v>
       </c>
       <c r="G13" t="n">
-        <v>568</v>
+        <v>1136</v>
       </c>
       <c r="H13" t="n">
-        <v>206</v>
+        <v>412</v>
       </c>
       <c r="I13" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J13" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1464,7 +1502,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>3802</v>
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>7604</v>
       </c>
     </row>
     <row r="14">
@@ -1480,22 +1521,22 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>226</v>
+        <v>452</v>
       </c>
       <c r="E14" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="H14" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1504,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1540,7 +1581,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>269</v>
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>538</v>
       </c>
     </row>
     <row r="15">
@@ -1556,28 +1600,28 @@
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>478</v>
+        <v>956</v>
       </c>
       <c r="E15" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1616,7 +1660,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>565</v>
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>1130</v>
       </c>
     </row>
     <row r="16">
@@ -1632,31 +1679,31 @@
         <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>2425</v>
+        <v>4850</v>
       </c>
       <c r="E16" t="n">
-        <v>129</v>
+        <v>258</v>
       </c>
       <c r="F16" t="n">
-        <v>86</v>
+        <v>172</v>
       </c>
       <c r="G16" t="n">
-        <v>296</v>
+        <v>592</v>
       </c>
       <c r="H16" t="n">
-        <v>118</v>
+        <v>236</v>
       </c>
       <c r="I16" t="n">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="J16" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -1692,7 +1739,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>3121</v>
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>6242</v>
       </c>
     </row>
     <row r="17">
@@ -1708,32 +1758,32 @@
         <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>2661</v>
+        <v>5322</v>
       </c>
       <c r="E17" t="n">
-        <v>148</v>
+        <v>296</v>
       </c>
       <c r="F17" t="n">
+        <v>64</v>
+      </c>
+      <c r="G17" t="n">
+        <v>812</v>
+      </c>
+      <c r="H17" t="n">
+        <v>82</v>
+      </c>
+      <c r="I17" t="n">
         <v>32</v>
       </c>
-      <c r="G17" t="n">
-        <v>406</v>
-      </c>
-      <c r="H17" t="n">
-        <v>41</v>
-      </c>
-      <c r="I17" t="n">
-        <v>16</v>
-      </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
+        <v>4</v>
+      </c>
+      <c r="L17" t="n">
         <v>2</v>
       </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
@@ -1768,7 +1818,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>3307</v>
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>6614</v>
       </c>
     </row>
     <row r="18">
@@ -1784,28 +1837,28 @@
         <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>7885</v>
+        <v>15770</v>
       </c>
       <c r="E18" t="n">
-        <v>493</v>
+        <v>986</v>
       </c>
       <c r="F18" t="n">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="G18" t="n">
-        <v>524</v>
+        <v>1048</v>
       </c>
       <c r="H18" t="n">
-        <v>248</v>
+        <v>496</v>
       </c>
       <c r="I18" t="n">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="J18" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K18" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -1844,7 +1897,10 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>9310</v>
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>18620</v>
       </c>
     </row>
     <row r="19">
@@ -1860,31 +1916,31 @@
         <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>10997</v>
+        <v>21994</v>
       </c>
       <c r="E19" t="n">
-        <v>469</v>
+        <v>938</v>
       </c>
       <c r="F19" t="n">
-        <v>113</v>
+        <v>226</v>
       </c>
       <c r="G19" t="n">
-        <v>590</v>
+        <v>1180</v>
       </c>
       <c r="H19" t="n">
-        <v>376</v>
+        <v>752</v>
       </c>
       <c r="I19" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="J19" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K19" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="L19" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -1920,7 +1976,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>12619</v>
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>25238</v>
       </c>
     </row>
     <row r="20">
@@ -1936,31 +1995,31 @@
         <v>7</v>
       </c>
       <c r="D20" t="n">
-        <v>15693</v>
+        <v>31386</v>
       </c>
       <c r="E20" t="n">
-        <v>612</v>
+        <v>1224</v>
       </c>
       <c r="F20" t="n">
-        <v>311</v>
+        <v>622</v>
       </c>
       <c r="G20" t="n">
-        <v>937</v>
+        <v>1874</v>
       </c>
       <c r="H20" t="n">
-        <v>970</v>
+        <v>1940</v>
       </c>
       <c r="I20" t="n">
-        <v>171</v>
+        <v>342</v>
       </c>
       <c r="J20" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K20" t="n">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="L20" t="n">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -1996,7 +2055,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>18804</v>
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>37608</v>
       </c>
     </row>
     <row r="21">
@@ -2012,34 +2074,34 @@
         <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>20873</v>
+        <v>41746</v>
       </c>
       <c r="E21" t="n">
-        <v>639</v>
+        <v>1278</v>
       </c>
       <c r="F21" t="n">
-        <v>349</v>
+        <v>698</v>
       </c>
       <c r="G21" t="n">
-        <v>1523</v>
+        <v>3046</v>
       </c>
       <c r="H21" t="n">
-        <v>1251</v>
+        <v>2502</v>
       </c>
       <c r="I21" t="n">
-        <v>135</v>
+        <v>270</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="L21" t="n">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -2072,7 +2134,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>24831</v>
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>49662</v>
       </c>
     </row>
     <row r="22">
@@ -2088,31 +2153,31 @@
         <v>9</v>
       </c>
       <c r="D22" t="n">
-        <v>10548</v>
+        <v>21096</v>
       </c>
       <c r="E22" t="n">
-        <v>304</v>
+        <v>608</v>
       </c>
       <c r="F22" t="n">
-        <v>161</v>
+        <v>322</v>
       </c>
       <c r="G22" t="n">
-        <v>576</v>
+        <v>1152</v>
       </c>
       <c r="H22" t="n">
-        <v>487</v>
+        <v>974</v>
       </c>
       <c r="I22" t="n">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="J22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K22" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L22" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -2148,7 +2213,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>12168</v>
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>24336</v>
       </c>
     </row>
     <row r="23">
@@ -2164,32 +2232,32 @@
         <v>10</v>
       </c>
       <c r="D23" t="n">
-        <v>5980</v>
+        <v>11960</v>
       </c>
       <c r="E23" t="n">
-        <v>206</v>
+        <v>412</v>
       </c>
       <c r="F23" t="n">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="G23" t="n">
-        <v>395</v>
+        <v>790</v>
       </c>
       <c r="H23" t="n">
-        <v>205</v>
+        <v>410</v>
       </c>
       <c r="I23" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K23" t="n">
+        <v>16</v>
+      </c>
+      <c r="L23" t="n">
         <v>8</v>
       </c>
-      <c r="L23" t="n">
-        <v>4</v>
-      </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
@@ -2224,7 +2292,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>6873</v>
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>13746</v>
       </c>
     </row>
     <row r="24">
@@ -2240,22 +2311,22 @@
         <v>11</v>
       </c>
       <c r="D24" t="n">
-        <v>1165</v>
+        <v>2330</v>
       </c>
       <c r="E24" t="n">
-        <v>82</v>
+        <v>164</v>
       </c>
       <c r="F24" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G24" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="H24" t="n">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I24" t="n">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2267,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -2300,7 +2371,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>1388</v>
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>2776</v>
       </c>
     </row>
     <row r="25">
@@ -2316,31 +2390,31 @@
         <v>12</v>
       </c>
       <c r="D25" t="n">
-        <v>479</v>
+        <v>958</v>
       </c>
       <c r="E25" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F25" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="G25" t="n">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="H25" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="I25" t="n">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="J25" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -2376,7 +2450,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>668</v>
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>1336</v>
       </c>
     </row>
     <row r="26">
@@ -2392,31 +2469,31 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>259</v>
+        <v>518</v>
       </c>
       <c r="E26" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F26" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G26" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H26" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -2452,7 +2529,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>324</v>
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>648</v>
       </c>
     </row>
     <row r="27">
@@ -2468,32 +2548,32 @@
         <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>285</v>
+        <v>570</v>
       </c>
       <c r="E27" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="H27" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="I27" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J27" t="n">
+        <v>4</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
         <v>2</v>
       </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
@@ -2528,7 +2608,10 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>351</v>
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>702</v>
       </c>
     </row>
     <row r="28">
@@ -2544,31 +2627,31 @@
         <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>944</v>
+        <v>1888</v>
       </c>
       <c r="E28" t="n">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="F28" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G28" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="H28" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="I28" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -2604,7 +2687,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>1096</v>
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>2192</v>
       </c>
     </row>
     <row r="29">
@@ -2620,31 +2706,31 @@
         <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>5540</v>
+        <v>11080</v>
       </c>
       <c r="E29" t="n">
-        <v>358</v>
+        <v>716</v>
       </c>
       <c r="F29" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="G29" t="n">
-        <v>1085</v>
+        <v>2170</v>
       </c>
       <c r="H29" t="n">
-        <v>291</v>
+        <v>582</v>
       </c>
       <c r="I29" t="n">
-        <v>82</v>
+        <v>164</v>
       </c>
       <c r="J29" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K29" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="L29" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -2680,7 +2766,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>7451</v>
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>14902</v>
       </c>
     </row>
     <row r="30">
@@ -2696,31 +2785,31 @@
         <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>8462</v>
+        <v>16924</v>
       </c>
       <c r="E30" t="n">
-        <v>538</v>
+        <v>1076</v>
       </c>
       <c r="F30" t="n">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="G30" t="n">
-        <v>618</v>
+        <v>1236</v>
       </c>
       <c r="H30" t="n">
-        <v>302</v>
+        <v>604</v>
       </c>
       <c r="I30" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="J30" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="K30" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L30" t="n">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -2756,7 +2845,10 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>10147</v>
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>20294</v>
       </c>
     </row>
     <row r="31">
@@ -2772,31 +2864,31 @@
         <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>11140</v>
+        <v>22280</v>
       </c>
       <c r="E31" t="n">
-        <v>521</v>
+        <v>1042</v>
       </c>
       <c r="F31" t="n">
-        <v>108</v>
+        <v>216</v>
       </c>
       <c r="G31" t="n">
-        <v>689</v>
+        <v>1378</v>
       </c>
       <c r="H31" t="n">
-        <v>456</v>
+        <v>912</v>
       </c>
       <c r="I31" t="n">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="J31" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K31" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L31" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -2832,7 +2924,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>13011</v>
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>26022</v>
       </c>
     </row>
     <row r="32">
@@ -2848,31 +2943,31 @@
         <v>7</v>
       </c>
       <c r="D32" t="n">
-        <v>14717</v>
+        <v>29434</v>
       </c>
       <c r="E32" t="n">
-        <v>714</v>
+        <v>1428</v>
       </c>
       <c r="F32" t="n">
-        <v>328</v>
+        <v>656</v>
       </c>
       <c r="G32" t="n">
-        <v>1291</v>
+        <v>2582</v>
       </c>
       <c r="H32" t="n">
-        <v>1404</v>
+        <v>2808</v>
       </c>
       <c r="I32" t="n">
-        <v>211</v>
+        <v>422</v>
       </c>
       <c r="J32" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K32" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="L32" t="n">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -2908,7 +3003,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>18720</v>
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>37440</v>
       </c>
     </row>
     <row r="33">
@@ -2924,31 +3022,31 @@
         <v>8</v>
       </c>
       <c r="D33" t="n">
-        <v>21465</v>
+        <v>42930</v>
       </c>
       <c r="E33" t="n">
-        <v>687</v>
+        <v>1374</v>
       </c>
       <c r="F33" t="n">
-        <v>761</v>
+        <v>1522</v>
       </c>
       <c r="G33" t="n">
-        <v>1424</v>
+        <v>2848</v>
       </c>
       <c r="H33" t="n">
-        <v>1566</v>
+        <v>3132</v>
       </c>
       <c r="I33" t="n">
-        <v>242</v>
+        <v>484</v>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K33" t="n">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="L33" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -2984,7 +3082,10 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>26183</v>
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>52366</v>
       </c>
     </row>
     <row r="34">
@@ -3000,31 +3101,31 @@
         <v>9</v>
       </c>
       <c r="D34" t="n">
-        <v>11455</v>
+        <v>22910</v>
       </c>
       <c r="E34" t="n">
-        <v>306</v>
+        <v>612</v>
       </c>
       <c r="F34" t="n">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="G34" t="n">
-        <v>679</v>
+        <v>1358</v>
       </c>
       <c r="H34" t="n">
-        <v>703</v>
+        <v>1406</v>
       </c>
       <c r="I34" t="n">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="J34" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K34" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L34" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -3060,7 +3161,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>13470</v>
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>26940</v>
       </c>
     </row>
     <row r="35">
@@ -3076,31 +3180,31 @@
         <v>10</v>
       </c>
       <c r="D35" t="n">
-        <v>6556</v>
+        <v>13112</v>
       </c>
       <c r="E35" t="n">
-        <v>253</v>
+        <v>506</v>
       </c>
       <c r="F35" t="n">
-        <v>109</v>
+        <v>218</v>
       </c>
       <c r="G35" t="n">
-        <v>418</v>
+        <v>836</v>
       </c>
       <c r="H35" t="n">
-        <v>296</v>
+        <v>592</v>
       </c>
       <c r="I35" t="n">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K35" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L35" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -3136,7 +3240,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>7700</v>
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>15400</v>
       </c>
     </row>
     <row r="36">
@@ -3152,22 +3259,22 @@
         <v>11</v>
       </c>
       <c r="D36" t="n">
-        <v>1454</v>
+        <v>2908</v>
       </c>
       <c r="E36" t="n">
+        <v>144</v>
+      </c>
+      <c r="F36" t="n">
         <v>72</v>
       </c>
-      <c r="F36" t="n">
-        <v>36</v>
-      </c>
       <c r="G36" t="n">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="H36" t="n">
-        <v>101</v>
+        <v>202</v>
       </c>
       <c r="I36" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3212,7 +3319,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>1755</v>
+        <v>0</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>3510</v>
       </c>
     </row>
     <row r="37">
@@ -3228,28 +3338,28 @@
         <v>12</v>
       </c>
       <c r="D37" t="n">
-        <v>678</v>
+        <v>1356</v>
       </c>
       <c r="E37" t="n">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="F37" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="G37" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="H37" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I37" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -3288,7 +3398,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>848</v>
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>1696</v>
       </c>
     </row>
     <row r="38">
@@ -3304,19 +3417,19 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>294</v>
+        <v>588</v>
       </c>
       <c r="E38" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F38" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G38" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="H38" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3364,7 +3477,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>350</v>
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>700</v>
       </c>
     </row>
     <row r="39">
@@ -3380,31 +3496,31 @@
         <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>498</v>
+        <v>996</v>
       </c>
       <c r="E39" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F39" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G39" t="n">
+        <v>180</v>
+      </c>
+      <c r="H39" t="n">
         <v>90</v>
       </c>
-      <c r="H39" t="n">
-        <v>45</v>
-      </c>
       <c r="I39" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -3440,7 +3556,10 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>665</v>
+        <v>0</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>1330</v>
       </c>
     </row>
     <row r="40">
@@ -3456,31 +3575,31 @@
         <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>1405</v>
+        <v>2810</v>
       </c>
       <c r="E40" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F40" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G40" t="n">
-        <v>126</v>
+        <v>252</v>
       </c>
       <c r="H40" t="n">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="I40" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="L40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -3516,7 +3635,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>1680</v>
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>3360</v>
       </c>
     </row>
     <row r="41">
@@ -3532,31 +3654,31 @@
         <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>6182</v>
+        <v>12364</v>
       </c>
       <c r="E41" t="n">
-        <v>448</v>
+        <v>896</v>
       </c>
       <c r="F41" t="n">
-        <v>176</v>
+        <v>352</v>
       </c>
       <c r="G41" t="n">
-        <v>989</v>
+        <v>1978</v>
       </c>
       <c r="H41" t="n">
-        <v>184</v>
+        <v>368</v>
       </c>
       <c r="I41" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="J41" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="K41" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L41" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -3592,7 +3714,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>8115</v>
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>16230</v>
       </c>
     </row>
     <row r="42">
@@ -3608,31 +3733,31 @@
         <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>10619</v>
+        <v>21238</v>
       </c>
       <c r="E42" t="n">
-        <v>666</v>
+        <v>1332</v>
       </c>
       <c r="F42" t="n">
-        <v>257</v>
+        <v>514</v>
       </c>
       <c r="G42" t="n">
-        <v>813</v>
+        <v>1626</v>
       </c>
       <c r="H42" t="n">
-        <v>394</v>
+        <v>788</v>
       </c>
       <c r="I42" t="n">
-        <v>105</v>
+        <v>210</v>
       </c>
       <c r="J42" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="K42" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="L42" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -3668,7 +3793,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>12924</v>
+        <v>0</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>25848</v>
       </c>
     </row>
     <row r="43">
@@ -3684,32 +3812,32 @@
         <v>6</v>
       </c>
       <c r="D43" t="n">
-        <v>12849</v>
+        <v>25698</v>
       </c>
       <c r="E43" t="n">
-        <v>520</v>
+        <v>1040</v>
       </c>
       <c r="F43" t="n">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="G43" t="n">
-        <v>832</v>
+        <v>1664</v>
       </c>
       <c r="H43" t="n">
-        <v>588</v>
+        <v>1176</v>
       </c>
       <c r="I43" t="n">
-        <v>116</v>
+        <v>232</v>
       </c>
       <c r="J43" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K43" t="n">
+        <v>36</v>
+      </c>
+      <c r="L43" t="n">
         <v>18</v>
       </c>
-      <c r="L43" t="n">
-        <v>9</v>
-      </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
@@ -3744,7 +3872,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>15182</v>
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>30364</v>
       </c>
     </row>
     <row r="44">
@@ -3760,31 +3891,31 @@
         <v>7</v>
       </c>
       <c r="D44" t="n">
-        <v>15509</v>
+        <v>31018</v>
       </c>
       <c r="E44" t="n">
-        <v>827</v>
+        <v>1654</v>
       </c>
       <c r="F44" t="n">
-        <v>569</v>
+        <v>1138</v>
       </c>
       <c r="G44" t="n">
-        <v>1496</v>
+        <v>2992</v>
       </c>
       <c r="H44" t="n">
-        <v>1401</v>
+        <v>2802</v>
       </c>
       <c r="I44" t="n">
-        <v>253</v>
+        <v>506</v>
       </c>
       <c r="J44" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K44" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L44" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -3820,7 +3951,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>20156</v>
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>40312</v>
       </c>
     </row>
     <row r="45">
@@ -3836,31 +3970,31 @@
         <v>8</v>
       </c>
       <c r="D45" t="n">
-        <v>21636</v>
+        <v>43272</v>
       </c>
       <c r="E45" t="n">
-        <v>716</v>
+        <v>1432</v>
       </c>
       <c r="F45" t="n">
-        <v>902</v>
+        <v>1804</v>
       </c>
       <c r="G45" t="n">
-        <v>1883</v>
+        <v>3766</v>
       </c>
       <c r="H45" t="n">
-        <v>1813</v>
+        <v>3626</v>
       </c>
       <c r="I45" t="n">
-        <v>269</v>
+        <v>538</v>
       </c>
       <c r="J45" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="K45" t="n">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="L45" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -3896,7 +4030,10 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>27289</v>
+        <v>0</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>54578</v>
       </c>
     </row>
     <row r="46">
@@ -3912,34 +4049,34 @@
         <v>9</v>
       </c>
       <c r="D46" t="n">
-        <v>12615</v>
+        <v>25230</v>
       </c>
       <c r="E46" t="n">
-        <v>459</v>
+        <v>918</v>
       </c>
       <c r="F46" t="n">
-        <v>351</v>
+        <v>702</v>
       </c>
       <c r="G46" t="n">
-        <v>996</v>
+        <v>1992</v>
       </c>
       <c r="H46" t="n">
-        <v>687</v>
+        <v>1374</v>
       </c>
       <c r="I46" t="n">
-        <v>108</v>
+        <v>216</v>
       </c>
       <c r="J46" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="K46" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L46" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="M46" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -3972,7 +4109,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>15282</v>
+        <v>0</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>30564</v>
       </c>
     </row>
     <row r="47">
@@ -4048,6 +4188,9 @@
         <v>0</v>
       </c>
       <c r="X47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y47" t="n">
         <v>9443</v>
       </c>
     </row>
@@ -4124,6 +4267,9 @@
         <v>0</v>
       </c>
       <c r="X48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y48" t="n">
         <v>2496</v>
       </c>
     </row>
@@ -4200,6 +4346,9 @@
         <v>0</v>
       </c>
       <c r="X49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y49" t="n">
         <v>795</v>
       </c>
     </row>
@@ -4276,6 +4425,9 @@
         <v>0</v>
       </c>
       <c r="X50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y50" t="n">
         <v>306</v>
       </c>
     </row>
@@ -4352,6 +4504,9 @@
         <v>0</v>
       </c>
       <c r="X51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y51" t="n">
         <v>703</v>
       </c>
     </row>
@@ -4428,6 +4583,9 @@
         <v>0</v>
       </c>
       <c r="X52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y52" t="n">
         <v>5327</v>
       </c>
     </row>
@@ -4504,6 +4662,9 @@
         <v>0</v>
       </c>
       <c r="X53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y53" t="n">
         <v>5648</v>
       </c>
     </row>
@@ -4580,6 +4741,9 @@
         <v>0</v>
       </c>
       <c r="X54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y54" t="n">
         <v>16001</v>
       </c>
     </row>
@@ -4656,6 +4820,9 @@
         <v>0</v>
       </c>
       <c r="X55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y55" t="n">
         <v>15904</v>
       </c>
     </row>
@@ -4732,6 +4899,9 @@
         <v>0</v>
       </c>
       <c r="X56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y56" t="n">
         <v>21066</v>
       </c>
     </row>
@@ -4808,6 +4978,9 @@
         <v>0</v>
       </c>
       <c r="X57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y57" t="n">
         <v>29996</v>
       </c>
     </row>
@@ -4884,6 +5057,9 @@
         <v>0</v>
       </c>
       <c r="X58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y58" t="n">
         <v>17378</v>
       </c>
     </row>
@@ -4960,6 +5136,9 @@
         <v>0</v>
       </c>
       <c r="X59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y59" t="n">
         <v>9878</v>
       </c>
     </row>
@@ -5036,6 +5215,9 @@
         <v>0</v>
       </c>
       <c r="X60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y60" t="n">
         <v>2309</v>
       </c>
     </row>
@@ -5112,6 +5294,9 @@
         <v>0</v>
       </c>
       <c r="X61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y61" t="n">
         <v>1085</v>
       </c>
     </row>
@@ -5188,6 +5373,9 @@
         <v>0</v>
       </c>
       <c r="X62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y62" t="n">
         <v>523</v>
       </c>
     </row>
@@ -5264,6 +5452,9 @@
         <v>0</v>
       </c>
       <c r="X63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y63" t="n">
         <v>698</v>
       </c>
     </row>
@@ -5340,6 +5531,9 @@
         <v>0</v>
       </c>
       <c r="X64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y64" t="n">
         <v>1850</v>
       </c>
     </row>
@@ -5416,6 +5610,9 @@
         <v>0</v>
       </c>
       <c r="X65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y65" t="n">
         <v>10316</v>
       </c>
     </row>
@@ -5492,6 +5689,9 @@
         <v>0</v>
       </c>
       <c r="X66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y66" t="n">
         <v>16498</v>
       </c>
     </row>
@@ -5568,6 +5768,9 @@
         <v>0</v>
       </c>
       <c r="X67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y67" t="n">
         <v>19354</v>
       </c>
     </row>
@@ -5644,6 +5847,9 @@
         <v>0</v>
       </c>
       <c r="X68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y68" t="n">
         <v>26752</v>
       </c>
     </row>
@@ -5720,6 +5926,9 @@
         <v>0</v>
       </c>
       <c r="X69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y69" t="n">
         <v>35546</v>
       </c>
     </row>
@@ -5796,6 +6005,9 @@
         <v>0</v>
       </c>
       <c r="X70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y70" t="n">
         <v>20623</v>
       </c>
     </row>
@@ -5872,6 +6084,9 @@
         <v>0</v>
       </c>
       <c r="X71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y71" t="n">
         <v>11731</v>
       </c>
     </row>
@@ -5948,6 +6163,9 @@
         <v>0</v>
       </c>
       <c r="X72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y72" t="n">
         <v>2353</v>
       </c>
     </row>
@@ -6024,6 +6242,9 @@
         <v>0</v>
       </c>
       <c r="X73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y73" t="n">
         <v>1010</v>
       </c>
     </row>
@@ -6100,6 +6321,9 @@
         <v>0</v>
       </c>
       <c r="X74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y74" t="n">
         <v>1188</v>
       </c>
     </row>
@@ -6176,6 +6400,9 @@
         <v>0</v>
       </c>
       <c r="X75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y75" t="n">
         <v>1640</v>
       </c>
     </row>
@@ -6252,6 +6479,9 @@
         <v>0</v>
       </c>
       <c r="X76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y76" t="n">
         <v>5883</v>
       </c>
     </row>
@@ -6328,6 +6558,9 @@
         <v>0</v>
       </c>
       <c r="X77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y77" t="n">
         <v>19587</v>
       </c>
     </row>
@@ -6404,6 +6637,9 @@
         <v>0</v>
       </c>
       <c r="X78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y78" t="n">
         <v>28846</v>
       </c>
     </row>
@@ -6480,6 +6716,9 @@
         <v>0</v>
       </c>
       <c r="X79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y79" t="n">
         <v>33756</v>
       </c>
     </row>
@@ -6556,6 +6795,9 @@
         <v>0</v>
       </c>
       <c r="X80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y80" t="n">
         <v>42466</v>
       </c>
     </row>
@@ -6632,6 +6874,9 @@
         <v>0</v>
       </c>
       <c r="X81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y81" t="n">
         <v>61534</v>
       </c>
     </row>
@@ -6708,6 +6953,9 @@
         <v>0</v>
       </c>
       <c r="X82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y82" t="n">
         <v>36848</v>
       </c>
     </row>
@@ -6784,6 +7032,9 @@
         <v>0</v>
       </c>
       <c r="X83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y83" t="n">
         <v>26598</v>
       </c>
     </row>
@@ -6860,6 +7111,9 @@
         <v>0</v>
       </c>
       <c r="X84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y84" t="n">
         <v>8075</v>
       </c>
     </row>
@@ -6936,6 +7190,9 @@
         <v>0</v>
       </c>
       <c r="X85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y85" t="n">
         <v>5967</v>
       </c>
     </row>
@@ -7012,6 +7269,9 @@
         <v>0</v>
       </c>
       <c r="X86" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y86" t="n">
         <v>644</v>
       </c>
     </row>
@@ -7088,6 +7348,9 @@
         <v>0</v>
       </c>
       <c r="X87" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y87" t="n">
         <v>820</v>
       </c>
     </row>
@@ -7164,6 +7427,9 @@
         <v>0</v>
       </c>
       <c r="X88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y88" t="n">
         <v>3023</v>
       </c>
     </row>
@@ -7240,6 +7506,9 @@
         <v>0</v>
       </c>
       <c r="X89" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y89" t="n">
         <v>14154</v>
       </c>
     </row>
@@ -7316,6 +7585,9 @@
         <v>0</v>
       </c>
       <c r="X90" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y90" t="n">
         <v>19805</v>
       </c>
     </row>
@@ -7392,6 +7664,9 @@
         <v>0</v>
       </c>
       <c r="X91" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y91" t="n">
         <v>25239</v>
       </c>
     </row>
@@ -7468,6 +7743,9 @@
         <v>0</v>
       </c>
       <c r="X92" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y92" t="n">
         <v>30842</v>
       </c>
     </row>
@@ -7544,6 +7822,9 @@
         <v>0</v>
       </c>
       <c r="X93" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y93" t="n">
         <v>41489</v>
       </c>
     </row>
@@ -7620,6 +7901,9 @@
         <v>0</v>
       </c>
       <c r="X94" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y94" t="n">
         <v>26023</v>
       </c>
     </row>
@@ -7696,6 +7980,9 @@
         <v>0</v>
       </c>
       <c r="X95" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y95" t="n">
         <v>16243</v>
       </c>
     </row>
@@ -7772,6 +8059,9 @@
         <v>0</v>
       </c>
       <c r="X96" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y96" t="n">
         <v>3591</v>
       </c>
     </row>
@@ -7848,6 +8138,9 @@
         <v>0</v>
       </c>
       <c r="X97" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y97" t="n">
         <v>1498</v>
       </c>
     </row>
@@ -7924,6 +8217,9 @@
         <v>0</v>
       </c>
       <c r="X98" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y98" t="n">
         <v>872</v>
       </c>
     </row>
@@ -8000,6 +8296,9 @@
         <v>0</v>
       </c>
       <c r="X99" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y99" t="n">
         <v>1305</v>
       </c>
     </row>
@@ -8076,6 +8375,9 @@
         <v>0</v>
       </c>
       <c r="X100" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y100" t="n">
         <v>3260</v>
       </c>
     </row>
@@ -8152,6 +8454,9 @@
         <v>0</v>
       </c>
       <c r="X101" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y101" t="n">
         <v>14749</v>
       </c>
     </row>
@@ -8228,6 +8533,9 @@
         <v>0</v>
       </c>
       <c r="X102" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y102" t="n">
         <v>21776</v>
       </c>
     </row>
@@ -8304,6 +8612,9 @@
         <v>0</v>
       </c>
       <c r="X103" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y103" t="n">
         <v>25517</v>
       </c>
     </row>
@@ -8380,6 +8691,9 @@
         <v>0</v>
       </c>
       <c r="X104" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y104" t="n">
         <v>32818</v>
       </c>
     </row>
@@ -8456,6 +8770,9 @@
         <v>0</v>
       </c>
       <c r="X105" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y105" t="n">
         <v>41096</v>
       </c>
     </row>
@@ -8532,6 +8849,9 @@
         <v>0</v>
       </c>
       <c r="X106" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y106" t="n">
         <v>27321</v>
       </c>
     </row>
@@ -8608,6 +8928,9 @@
         <v>0</v>
       </c>
       <c r="X107" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y107" t="n">
         <v>18091</v>
       </c>
     </row>
@@ -8684,6 +9007,9 @@
         <v>0</v>
       </c>
       <c r="X108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y108" t="n">
         <v>4170</v>
       </c>
     </row>
@@ -8760,6 +9086,9 @@
         <v>0</v>
       </c>
       <c r="X109" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y109" t="n">
         <v>1483</v>
       </c>
     </row>
@@ -8836,6 +9165,9 @@
         <v>0</v>
       </c>
       <c r="X110" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y110" t="n">
         <v>806</v>
       </c>
     </row>
@@ -8912,6 +9244,9 @@
         <v>0</v>
       </c>
       <c r="X111" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y111" t="n">
         <v>1382</v>
       </c>
     </row>
@@ -8988,6 +9323,9 @@
         <v>0</v>
       </c>
       <c r="X112" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y112" t="n">
         <v>7228</v>
       </c>
     </row>
@@ -9064,6 +9402,9 @@
         <v>0</v>
       </c>
       <c r="X113" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y113" t="n">
         <v>11532</v>
       </c>
     </row>
@@ -9140,6 +9481,9 @@
         <v>0</v>
       </c>
       <c r="X114" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y114" t="n">
         <v>25205</v>
       </c>
     </row>
@@ -9216,6 +9560,9 @@
         <v>0</v>
       </c>
       <c r="X115" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y115" t="n">
         <v>29374</v>
       </c>
     </row>
@@ -9292,6 +9639,9 @@
         <v>0</v>
       </c>
       <c r="X116" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y116" t="n">
         <v>36559</v>
       </c>
     </row>
@@ -9368,6 +9718,9 @@
         <v>0</v>
       </c>
       <c r="X117" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y117" t="n">
         <v>46726</v>
       </c>
     </row>
@@ -9444,6 +9797,9 @@
         <v>0</v>
       </c>
       <c r="X118" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y118" t="n">
         <v>30894</v>
       </c>
     </row>
@@ -9520,6 +9876,9 @@
         <v>0</v>
       </c>
       <c r="X119" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y119" t="n">
         <v>19607</v>
       </c>
     </row>
@@ -9596,6 +9955,9 @@
         <v>0</v>
       </c>
       <c r="X120" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y120" t="n">
         <v>4907</v>
       </c>
     </row>
@@ -9672,6 +10034,9 @@
         <v>0</v>
       </c>
       <c r="X121" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y121" t="n">
         <v>1659</v>
       </c>
     </row>
@@ -9748,6 +10113,9 @@
         <v>0</v>
       </c>
       <c r="X122" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y122" t="n">
         <v>906</v>
       </c>
     </row>
@@ -9824,6 +10192,9 @@
         <v>0</v>
       </c>
       <c r="X123" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y123" t="n">
         <v>970</v>
       </c>
     </row>
@@ -9900,6 +10271,9 @@
         <v>0</v>
       </c>
       <c r="X124" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y124" t="n">
         <v>3150</v>
       </c>
     </row>
@@ -9976,6 +10350,9 @@
         <v>0</v>
       </c>
       <c r="X125" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y125" t="n">
         <v>17347</v>
       </c>
     </row>
@@ -10052,6 +10429,9 @@
         <v>0</v>
       </c>
       <c r="X126" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y126" t="n">
         <v>27354</v>
       </c>
     </row>
@@ -10128,6 +10508,9 @@
         <v>0</v>
       </c>
       <c r="X127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y127" t="n">
         <v>33021</v>
       </c>
     </row>
@@ -10204,6 +10587,9 @@
         <v>0</v>
       </c>
       <c r="X128" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y128" t="n">
         <v>39581</v>
       </c>
     </row>
@@ -10280,6 +10666,9 @@
         <v>0</v>
       </c>
       <c r="X129" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y129" t="n">
         <v>51218</v>
       </c>
     </row>
@@ -10356,6 +10745,9 @@
         <v>0</v>
       </c>
       <c r="X130" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y130" t="n">
         <v>34457</v>
       </c>
     </row>
@@ -10432,6 +10824,9 @@
         <v>0</v>
       </c>
       <c r="X131" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y131" t="n">
         <v>23205</v>
       </c>
     </row>
@@ -10508,6 +10903,9 @@
         <v>0</v>
       </c>
       <c r="X132" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y132" t="n">
         <v>4803</v>
       </c>
     </row>
@@ -10584,6 +10982,9 @@
         <v>0</v>
       </c>
       <c r="X133" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y133" t="n">
         <v>1870</v>
       </c>
     </row>
@@ -10660,6 +11061,9 @@
         <v>0</v>
       </c>
       <c r="X134" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y134" t="n">
         <v>1217</v>
       </c>
     </row>
@@ -10736,6 +11140,9 @@
         <v>0</v>
       </c>
       <c r="X135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y135" t="n">
         <v>1544</v>
       </c>
     </row>
@@ -10812,6 +11219,9 @@
         <v>0</v>
       </c>
       <c r="X136" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y136" t="n">
         <v>5080</v>
       </c>
     </row>
@@ -10888,6 +11298,9 @@
         <v>0</v>
       </c>
       <c r="X137" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y137" t="n">
         <v>17721</v>
       </c>
     </row>
@@ -10964,6 +11377,9 @@
         <v>0</v>
       </c>
       <c r="X138" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y138" t="n">
         <v>31076</v>
       </c>
     </row>
@@ -11040,6 +11456,9 @@
         <v>0</v>
       </c>
       <c r="X139" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y139" t="n">
         <v>35923</v>
       </c>
     </row>
@@ -11116,6 +11535,9 @@
         <v>0</v>
       </c>
       <c r="X140" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y140" t="n">
         <v>44794</v>
       </c>
     </row>
@@ -11192,6 +11614,9 @@
         <v>0</v>
       </c>
       <c r="X141" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y141" t="n">
         <v>54794</v>
       </c>
     </row>
@@ -11268,6 +11693,9 @@
         <v>0</v>
       </c>
       <c r="X142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y142" t="n">
         <v>37429</v>
       </c>
     </row>
@@ -11344,6 +11772,9 @@
         <v>0</v>
       </c>
       <c r="X143" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y143" t="n">
         <v>25576</v>
       </c>
     </row>
@@ -11420,6 +11851,9 @@
         <v>0</v>
       </c>
       <c r="X144" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y144" t="n">
         <v>5228</v>
       </c>
     </row>
@@ -11496,6 +11930,9 @@
         <v>0</v>
       </c>
       <c r="X145" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y145" t="n">
         <v>2062</v>
       </c>
     </row>
@@ -11572,6 +12009,9 @@
         <v>0</v>
       </c>
       <c r="X146" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y146" t="n">
         <v>1304</v>
       </c>
     </row>
@@ -11648,6 +12088,9 @@
         <v>0</v>
       </c>
       <c r="X147" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y147" t="n">
         <v>1733</v>
       </c>
     </row>
@@ -11724,6 +12167,9 @@
         <v>0</v>
       </c>
       <c r="X148" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y148" t="n">
         <v>11067</v>
       </c>
     </row>
@@ -11800,6 +12246,9 @@
         <v>0</v>
       </c>
       <c r="X149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y149" t="n">
         <v>15100</v>
       </c>
     </row>
@@ -11876,6 +12325,9 @@
         <v>0</v>
       </c>
       <c r="X150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y150" t="n">
         <v>32776</v>
       </c>
     </row>
@@ -11952,6 +12404,9 @@
         <v>0</v>
       </c>
       <c r="X151" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y151" t="n">
         <v>39070</v>
       </c>
     </row>
@@ -12028,6 +12483,9 @@
         <v>0</v>
       </c>
       <c r="X152" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y152" t="n">
         <v>45471</v>
       </c>
     </row>
@@ -12104,6 +12562,9 @@
         <v>0</v>
       </c>
       <c r="X153" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y153" t="n">
         <v>53704</v>
       </c>
     </row>
@@ -12180,6 +12641,9 @@
         <v>0</v>
       </c>
       <c r="X154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y154" t="n">
         <v>40149</v>
       </c>
     </row>
@@ -12256,6 +12720,9 @@
         <v>0</v>
       </c>
       <c r="X155" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y155" t="n">
         <v>28222</v>
       </c>
     </row>
@@ -12332,6 +12799,9 @@
         <v>0</v>
       </c>
       <c r="X156" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y156" t="n">
         <v>6394</v>
       </c>
     </row>
@@ -12408,6 +12878,9 @@
         <v>0</v>
       </c>
       <c r="X157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y157" t="n">
         <v>2864</v>
       </c>
     </row>
@@ -12484,6 +12957,9 @@
         <v>0</v>
       </c>
       <c r="X158" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y158" t="n">
         <v>1354</v>
       </c>
     </row>
@@ -12560,6 +13036,9 @@
         <v>0</v>
       </c>
       <c r="X159" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y159" t="n">
         <v>1696</v>
       </c>
     </row>
@@ -12636,6 +13115,9 @@
         <v>0</v>
       </c>
       <c r="X160" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y160" t="n">
         <v>5176</v>
       </c>
     </row>
@@ -12712,6 +13194,9 @@
         <v>0</v>
       </c>
       <c r="X161" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y161" t="n">
         <v>26925</v>
       </c>
     </row>
@@ -12788,6 +13273,9 @@
         <v>0</v>
       </c>
       <c r="X162" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y162" t="n">
         <v>35347</v>
       </c>
     </row>
@@ -12864,6 +13352,9 @@
         <v>0</v>
       </c>
       <c r="X163" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y163" t="n">
         <v>41619</v>
       </c>
     </row>
@@ -12940,6 +13431,9 @@
         <v>0</v>
       </c>
       <c r="X164" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y164" t="n">
         <v>47470</v>
       </c>
     </row>
@@ -13016,6 +13510,9 @@
         <v>0</v>
       </c>
       <c r="X165" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y165" t="n">
         <v>57680</v>
       </c>
     </row>
@@ -13092,6 +13589,9 @@
         <v>0</v>
       </c>
       <c r="X166" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y166" t="n">
         <v>42189</v>
       </c>
     </row>
@@ -13168,6 +13668,9 @@
         <v>0</v>
       </c>
       <c r="X167" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y167" t="n">
         <v>31341</v>
       </c>
     </row>
@@ -13244,6 +13747,9 @@
         <v>0</v>
       </c>
       <c r="X168" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y168" t="n">
         <v>7346</v>
       </c>
     </row>
@@ -13320,6 +13826,9 @@
         <v>0</v>
       </c>
       <c r="X169" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y169" t="n">
         <v>2893</v>
       </c>
     </row>
@@ -13396,6 +13905,9 @@
         <v>0</v>
       </c>
       <c r="X170" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y170" t="n">
         <v>1627</v>
       </c>
     </row>
@@ -13472,6 +13984,9 @@
         <v>0</v>
       </c>
       <c r="X171" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y171" t="n">
         <v>2181</v>
       </c>
     </row>
@@ -13548,6 +14063,9 @@
         <v>0</v>
       </c>
       <c r="X172" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y172" t="n">
         <v>11056</v>
       </c>
     </row>
@@ -13624,6 +14142,9 @@
         <v>0</v>
       </c>
       <c r="X173" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y173" t="n">
         <v>22068</v>
       </c>
     </row>
@@ -13700,6 +14221,9 @@
         <v>0</v>
       </c>
       <c r="X174" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y174" t="n">
         <v>40665</v>
       </c>
     </row>
@@ -13776,6 +14300,9 @@
         <v>0</v>
       </c>
       <c r="X175" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y175" t="n">
         <v>45685</v>
       </c>
     </row>
@@ -13852,6 +14379,9 @@
         <v>0</v>
       </c>
       <c r="X176" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y176" t="n">
         <v>50867</v>
       </c>
     </row>
@@ -13928,6 +14458,9 @@
         <v>0</v>
       </c>
       <c r="X177" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y177" t="n">
         <v>60415</v>
       </c>
     </row>
@@ -14004,6 +14537,9 @@
         <v>0</v>
       </c>
       <c r="X178" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y178" t="n">
         <v>47006</v>
       </c>
     </row>
@@ -14080,6 +14616,9 @@
         <v>0</v>
       </c>
       <c r="X179" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y179" t="n">
         <v>35602</v>
       </c>
     </row>
@@ -14156,6 +14695,9 @@
         <v>0</v>
       </c>
       <c r="X180" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y180" t="n">
         <v>7651</v>
       </c>
     </row>
@@ -14232,6 +14774,9 @@
         <v>0</v>
       </c>
       <c r="X181" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y181" t="n">
         <v>2553</v>
       </c>
     </row>
@@ -14308,6 +14853,9 @@
         <v>0</v>
       </c>
       <c r="X182" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y182" t="n">
         <v>1651</v>
       </c>
     </row>
@@ -14384,6 +14932,9 @@
         <v>0</v>
       </c>
       <c r="X183" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y183" t="n">
         <v>2119</v>
       </c>
     </row>
@@ -14460,6 +15011,9 @@
         <v>0</v>
       </c>
       <c r="X184" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y184" t="n">
         <v>7474</v>
       </c>
     </row>
@@ -14536,6 +15090,9 @@
         <v>0</v>
       </c>
       <c r="X185" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y185" t="n">
         <v>31722</v>
       </c>
     </row>
@@ -14612,6 +15169,9 @@
         <v>0</v>
       </c>
       <c r="X186" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y186" t="n">
         <v>46673</v>
       </c>
     </row>
@@ -14688,6 +15248,9 @@
         <v>0</v>
       </c>
       <c r="X187" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y187" t="n">
         <v>49058</v>
       </c>
     </row>
@@ -14764,6 +15327,9 @@
         <v>0</v>
       </c>
       <c r="X188" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y188" t="n">
         <v>53319</v>
       </c>
     </row>
@@ -14840,6 +15406,9 @@
         <v>0</v>
       </c>
       <c r="X189" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y189" t="n">
         <v>62814</v>
       </c>
     </row>
@@ -14916,6 +15485,9 @@
         <v>0</v>
       </c>
       <c r="X190" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y190" t="n">
         <v>45653</v>
       </c>
     </row>
@@ -14992,6 +15564,9 @@
         <v>0</v>
       </c>
       <c r="X191" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y191" t="n">
         <v>36118</v>
       </c>
     </row>
@@ -15068,6 +15643,9 @@
         <v>0</v>
       </c>
       <c r="X192" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y192" t="n">
         <v>8274</v>
       </c>
     </row>
@@ -15144,6 +15722,9 @@
         <v>0</v>
       </c>
       <c r="X193" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y193" t="n">
         <v>2710</v>
       </c>
     </row>
@@ -15220,6 +15801,9 @@
         <v>0</v>
       </c>
       <c r="X194" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y194" t="n">
         <v>2001</v>
       </c>
     </row>
@@ -15296,6 +15880,9 @@
         <v>0</v>
       </c>
       <c r="X195" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y195" t="n">
         <v>3076</v>
       </c>
     </row>
@@ -15372,6 +15959,9 @@
         <v>0</v>
       </c>
       <c r="X196" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y196" t="n">
         <v>1948</v>
       </c>
     </row>
@@ -15448,6 +16038,9 @@
         <v>0</v>
       </c>
       <c r="X197" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y197" t="n">
         <v>12</v>
       </c>
     </row>
@@ -15524,6 +16117,9 @@
         <v>0</v>
       </c>
       <c r="X198" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y198" t="n">
         <v>9752</v>
       </c>
     </row>
@@ -15600,6 +16196,9 @@
         <v>0</v>
       </c>
       <c r="X199" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y199" t="n">
         <v>19812</v>
       </c>
     </row>
@@ -15676,6 +16275,9 @@
         <v>0</v>
       </c>
       <c r="X200" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y200" t="n">
         <v>10441</v>
       </c>
     </row>
@@ -15752,6 +16354,9 @@
         <v>0</v>
       </c>
       <c r="X201" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y201" t="n">
         <v>6418</v>
       </c>
     </row>
@@ -15828,6 +16433,9 @@
         <v>0</v>
       </c>
       <c r="X202" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y202" t="n">
         <v>585</v>
       </c>
     </row>
@@ -15904,6 +16512,9 @@
         <v>0</v>
       </c>
       <c r="X203" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y203" t="n">
         <v>99</v>
       </c>
     </row>
@@ -15980,6 +16591,9 @@
         <v>0</v>
       </c>
       <c r="X204" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y204" t="n">
         <v>60</v>
       </c>
     </row>
@@ -16056,6 +16670,9 @@
         <v>0</v>
       </c>
       <c r="X205" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y205" t="n">
         <v>14</v>
       </c>
     </row>
@@ -16132,6 +16749,9 @@
         <v>0</v>
       </c>
       <c r="X206" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y206" t="n">
         <v>194</v>
       </c>
     </row>
@@ -16208,6 +16828,9 @@
         <v>0</v>
       </c>
       <c r="X207" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y207" t="n">
         <v>1024</v>
       </c>
     </row>
@@ -16284,6 +16907,9 @@
         <v>0</v>
       </c>
       <c r="X208" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y208" t="n">
         <v>4295</v>
       </c>
     </row>
@@ -16360,6 +16986,9 @@
         <v>0</v>
       </c>
       <c r="X209" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y209" t="n">
         <v>14824</v>
       </c>
     </row>
@@ -16436,6 +17065,9 @@
         <v>0</v>
       </c>
       <c r="X210" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y210" t="n">
         <v>33963</v>
       </c>
     </row>
@@ -16512,6 +17144,9 @@
         <v>0</v>
       </c>
       <c r="X211" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y211" t="n">
         <v>43575</v>
       </c>
     </row>
@@ -16588,6 +17223,9 @@
         <v>0</v>
       </c>
       <c r="X212" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y212" t="n">
         <v>37463</v>
       </c>
     </row>
@@ -16664,6 +17302,9 @@
         <v>0</v>
       </c>
       <c r="X213" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y213" t="n">
         <v>31170</v>
       </c>
     </row>
@@ -16740,6 +17381,9 @@
         <v>0</v>
       </c>
       <c r="X214" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y214" t="n">
         <v>9094</v>
       </c>
     </row>
@@ -16816,6 +17460,9 @@
         <v>0</v>
       </c>
       <c r="X215" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y215" t="n">
         <v>1193</v>
       </c>
     </row>
@@ -16892,6 +17539,9 @@
         <v>0</v>
       </c>
       <c r="X216" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y216" t="n">
         <v>1617</v>
       </c>
     </row>
@@ -16968,6 +17618,9 @@
         <v>0</v>
       </c>
       <c r="X217" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y217" t="n">
         <v>2034</v>
       </c>
     </row>
@@ -17044,6 +17697,9 @@
         <v>0</v>
       </c>
       <c r="X218" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y218" t="n">
         <v>7389</v>
       </c>
     </row>
@@ -17120,6 +17776,9 @@
         <v>0</v>
       </c>
       <c r="X219" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y219" t="n">
         <v>34283</v>
       </c>
     </row>
@@ -17196,6 +17855,9 @@
         <v>0</v>
       </c>
       <c r="X220" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y220" t="n">
         <v>48254</v>
       </c>
     </row>
@@ -17272,6 +17934,9 @@
         <v>0</v>
       </c>
       <c r="X221" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y221" t="n">
         <v>58012</v>
       </c>
     </row>
@@ -17348,6 +18013,9 @@
         <v>1</v>
       </c>
       <c r="X222" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y222" t="n">
         <v>67374</v>
       </c>
     </row>
@@ -17424,6 +18092,9 @@
         <v>2</v>
       </c>
       <c r="X223" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y223" t="n">
         <v>85842</v>
       </c>
     </row>
@@ -17500,6 +18171,9 @@
         <v>2</v>
       </c>
       <c r="X224" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y224" t="n">
         <v>66196</v>
       </c>
     </row>
@@ -17576,7 +18250,168 @@
         <v>0</v>
       </c>
       <c r="X225" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y225" t="n">
         <v>51356</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="inlineStr">
+        <is>
+          <t>202211</t>
+        </is>
+      </c>
+      <c r="B226" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C226" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="D226" t="n">
+        <v>5997</v>
+      </c>
+      <c r="E226" t="n">
+        <v>583</v>
+      </c>
+      <c r="F226" t="n">
+        <v>437</v>
+      </c>
+      <c r="G226" t="n">
+        <v>1842</v>
+      </c>
+      <c r="H226" t="n">
+        <v>796</v>
+      </c>
+      <c r="I226" t="n">
+        <v>506</v>
+      </c>
+      <c r="J226" t="n">
+        <v>707</v>
+      </c>
+      <c r="K226" t="n">
+        <v>72</v>
+      </c>
+      <c r="L226" t="n">
+        <v>43</v>
+      </c>
+      <c r="M226" t="n">
+        <v>234</v>
+      </c>
+      <c r="N226" t="n">
+        <v>0</v>
+      </c>
+      <c r="O226" t="n">
+        <v>27</v>
+      </c>
+      <c r="P226" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q226" t="n">
+        <v>31</v>
+      </c>
+      <c r="R226" t="n">
+        <v>1</v>
+      </c>
+      <c r="S226" t="n">
+        <v>1</v>
+      </c>
+      <c r="T226" t="n">
+        <v>3</v>
+      </c>
+      <c r="U226" t="n">
+        <v>1</v>
+      </c>
+      <c r="V226" t="n">
+        <v>1</v>
+      </c>
+      <c r="W226" t="n">
+        <v>0</v>
+      </c>
+      <c r="X226" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y226" t="n">
+        <v>11283</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="inlineStr">
+        <is>
+          <t>202212</t>
+        </is>
+      </c>
+      <c r="B227" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C227" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="D227" t="n">
+        <v>2167</v>
+      </c>
+      <c r="E227" t="n">
+        <v>171</v>
+      </c>
+      <c r="F227" t="n">
+        <v>204</v>
+      </c>
+      <c r="G227" t="n">
+        <v>1004</v>
+      </c>
+      <c r="H227" t="n">
+        <v>259</v>
+      </c>
+      <c r="I227" t="n">
+        <v>344</v>
+      </c>
+      <c r="J227" t="n">
+        <v>329</v>
+      </c>
+      <c r="K227" t="n">
+        <v>39</v>
+      </c>
+      <c r="L227" t="n">
+        <v>12</v>
+      </c>
+      <c r="M227" t="n">
+        <v>60</v>
+      </c>
+      <c r="N227" t="n">
+        <v>0</v>
+      </c>
+      <c r="O227" t="n">
+        <v>13</v>
+      </c>
+      <c r="P227" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q227" t="n">
+        <v>0</v>
+      </c>
+      <c r="R227" t="n">
+        <v>66</v>
+      </c>
+      <c r="S227" t="n">
+        <v>1</v>
+      </c>
+      <c r="T227" t="n">
+        <v>1</v>
+      </c>
+      <c r="U227" t="n">
+        <v>0</v>
+      </c>
+      <c r="V227" t="n">
+        <v>0</v>
+      </c>
+      <c r="W227" t="n">
+        <v>0</v>
+      </c>
+      <c r="X227" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y227" t="n">
+        <v>4683</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Excel_Wide/camino_routes_wide.xlsx
+++ b/Data/Excel_Wide/camino_routes_wide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y227"/>
+  <dimension ref="A1:Y228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,22 +573,22 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1132</v>
+        <v>566</v>
       </c>
       <c r="E2" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G2" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H2" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="I2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>1286</v>
+        <v>643</v>
       </c>
     </row>
     <row r="3">
@@ -652,28 +652,28 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>2248</v>
+        <v>1124</v>
       </c>
       <c r="E3" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>314</v>
+        <v>157</v>
       </c>
       <c r="H3" t="n">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="I3" t="n">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="J3" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>2802</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="4">
@@ -731,25 +731,25 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>4698</v>
+        <v>2349</v>
       </c>
       <c r="E4" t="n">
-        <v>184</v>
+        <v>92</v>
       </c>
       <c r="F4" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G4" t="n">
-        <v>736</v>
+        <v>368</v>
       </c>
       <c r="H4" t="n">
-        <v>206</v>
+        <v>103</v>
       </c>
       <c r="I4" t="n">
-        <v>282</v>
+        <v>141</v>
       </c>
       <c r="J4" t="n">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>6210</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="5">
@@ -810,28 +810,28 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>24048</v>
+        <v>12024</v>
       </c>
       <c r="E5" t="n">
-        <v>1470</v>
+        <v>735</v>
       </c>
       <c r="F5" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G5" t="n">
-        <v>3980</v>
+        <v>1990</v>
       </c>
       <c r="H5" t="n">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="I5" t="n">
-        <v>580</v>
+        <v>290</v>
       </c>
       <c r="J5" t="n">
-        <v>284</v>
+        <v>142</v>
       </c>
       <c r="K5" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>31108</v>
+        <v>15554</v>
       </c>
     </row>
     <row r="6">
@@ -889,31 +889,31 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>26970</v>
+        <v>13485</v>
       </c>
       <c r="E6" t="n">
-        <v>1408</v>
+        <v>704</v>
       </c>
       <c r="F6" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="G6" t="n">
-        <v>2998</v>
+        <v>1499</v>
       </c>
       <c r="H6" t="n">
-        <v>1090</v>
+        <v>545</v>
       </c>
       <c r="I6" t="n">
-        <v>652</v>
+        <v>326</v>
       </c>
       <c r="J6" t="n">
-        <v>324</v>
+        <v>162</v>
       </c>
       <c r="K6" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="L6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>33720</v>
+        <v>16860</v>
       </c>
     </row>
     <row r="7">
@@ -968,28 +968,28 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>31966</v>
+        <v>15983</v>
       </c>
       <c r="E7" t="n">
-        <v>1606</v>
+        <v>803</v>
       </c>
       <c r="F7" t="n">
-        <v>630</v>
+        <v>315</v>
       </c>
       <c r="G7" t="n">
-        <v>2188</v>
+        <v>1094</v>
       </c>
       <c r="H7" t="n">
-        <v>1480</v>
+        <v>740</v>
       </c>
       <c r="I7" t="n">
-        <v>516</v>
+        <v>258</v>
       </c>
       <c r="J7" t="n">
-        <v>174</v>
+        <v>87</v>
       </c>
       <c r="K7" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>38590</v>
+        <v>19295</v>
       </c>
     </row>
     <row r="8">
@@ -1047,28 +1047,28 @@
         <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>49596</v>
+        <v>24798</v>
       </c>
       <c r="E8" t="n">
-        <v>2768</v>
+        <v>1384</v>
       </c>
       <c r="F8" t="n">
-        <v>956</v>
+        <v>478</v>
       </c>
       <c r="G8" t="n">
-        <v>5674</v>
+        <v>2837</v>
       </c>
       <c r="H8" t="n">
-        <v>3782</v>
+        <v>1891</v>
       </c>
       <c r="I8" t="n">
-        <v>728</v>
+        <v>364</v>
       </c>
       <c r="J8" t="n">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="K8" t="n">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>63782</v>
+        <v>31891</v>
       </c>
     </row>
     <row r="9">
@@ -1126,31 +1126,31 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>62528</v>
+        <v>31264</v>
       </c>
       <c r="E9" t="n">
-        <v>7660</v>
+        <v>3830</v>
       </c>
       <c r="F9" t="n">
-        <v>7600</v>
+        <v>3800</v>
       </c>
       <c r="G9" t="n">
-        <v>6606</v>
+        <v>3303</v>
       </c>
       <c r="H9" t="n">
-        <v>3924</v>
+        <v>1962</v>
       </c>
       <c r="I9" t="n">
-        <v>2090</v>
+        <v>1045</v>
       </c>
       <c r="J9" t="n">
-        <v>246</v>
+        <v>123</v>
       </c>
       <c r="K9" t="n">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="L9" t="n">
-        <v>494</v>
+        <v>247</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>91202</v>
+        <v>45601</v>
       </c>
     </row>
     <row r="10">
@@ -1205,31 +1205,31 @@
         <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>37838</v>
+        <v>18919</v>
       </c>
       <c r="E10" t="n">
-        <v>1554</v>
+        <v>777</v>
       </c>
       <c r="F10" t="n">
-        <v>606</v>
+        <v>303</v>
       </c>
       <c r="G10" t="n">
-        <v>3434</v>
+        <v>1717</v>
       </c>
       <c r="H10" t="n">
-        <v>1260</v>
+        <v>630</v>
       </c>
       <c r="I10" t="n">
-        <v>648</v>
+        <v>324</v>
       </c>
       <c r="J10" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K10" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="L10" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>45504</v>
+        <v>22752</v>
       </c>
     </row>
     <row r="11">
@@ -1284,31 +1284,31 @@
         <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>23928</v>
+        <v>11964</v>
       </c>
       <c r="E11" t="n">
-        <v>1368</v>
+        <v>684</v>
       </c>
       <c r="F11" t="n">
-        <v>406</v>
+        <v>203</v>
       </c>
       <c r="G11" t="n">
-        <v>2246</v>
+        <v>1123</v>
       </c>
       <c r="H11" t="n">
-        <v>872</v>
+        <v>436</v>
       </c>
       <c r="I11" t="n">
-        <v>214</v>
+        <v>107</v>
       </c>
       <c r="J11" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K11" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>29112</v>
+        <v>14556</v>
       </c>
     </row>
     <row r="12">
@@ -1363,31 +1363,31 @@
         <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>7024</v>
+        <v>3512</v>
       </c>
       <c r="E12" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="F12" t="n">
-        <v>174</v>
+        <v>87</v>
       </c>
       <c r="G12" t="n">
-        <v>704</v>
+        <v>352</v>
       </c>
       <c r="H12" t="n">
-        <v>292</v>
+        <v>146</v>
       </c>
       <c r="I12" t="n">
-        <v>196</v>
+        <v>98</v>
       </c>
       <c r="J12" t="n">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>8820</v>
+        <v>4410</v>
       </c>
     </row>
     <row r="13">
@@ -1442,31 +1442,31 @@
         <v>12</v>
       </c>
       <c r="D13" t="n">
-        <v>5298</v>
+        <v>2649</v>
       </c>
       <c r="E13" t="n">
-        <v>196</v>
+        <v>98</v>
       </c>
       <c r="F13" t="n">
-        <v>298</v>
+        <v>149</v>
       </c>
       <c r="G13" t="n">
-        <v>1136</v>
+        <v>568</v>
       </c>
       <c r="H13" t="n">
-        <v>412</v>
+        <v>206</v>
       </c>
       <c r="I13" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J13" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>7604</v>
+        <v>3802</v>
       </c>
     </row>
     <row r="14">
@@ -1521,22 +1521,22 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>452</v>
+        <v>226</v>
       </c>
       <c r="E14" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="H14" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>538</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15">
@@ -1600,28 +1600,28 @@
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>956</v>
+        <v>478</v>
       </c>
       <c r="E15" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F15" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G15" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="H15" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>1130</v>
+        <v>565</v>
       </c>
     </row>
     <row r="16">
@@ -1679,31 +1679,31 @@
         <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>4850</v>
+        <v>2425</v>
       </c>
       <c r="E16" t="n">
-        <v>258</v>
+        <v>129</v>
       </c>
       <c r="F16" t="n">
-        <v>172</v>
+        <v>86</v>
       </c>
       <c r="G16" t="n">
-        <v>592</v>
+        <v>296</v>
       </c>
       <c r="H16" t="n">
-        <v>236</v>
+        <v>118</v>
       </c>
       <c r="I16" t="n">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="J16" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>6242</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="17">
@@ -1758,31 +1758,31 @@
         <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>5322</v>
+        <v>2661</v>
       </c>
       <c r="E17" t="n">
-        <v>296</v>
+        <v>148</v>
       </c>
       <c r="F17" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="G17" t="n">
-        <v>812</v>
+        <v>406</v>
       </c>
       <c r="H17" t="n">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="I17" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>6614</v>
+        <v>3307</v>
       </c>
     </row>
     <row r="18">
@@ -1837,28 +1837,28 @@
         <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>15770</v>
+        <v>7885</v>
       </c>
       <c r="E18" t="n">
-        <v>986</v>
+        <v>493</v>
       </c>
       <c r="F18" t="n">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="G18" t="n">
-        <v>1048</v>
+        <v>524</v>
       </c>
       <c r="H18" t="n">
-        <v>496</v>
+        <v>248</v>
       </c>
       <c r="I18" t="n">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="J18" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="K18" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>18620</v>
+        <v>9310</v>
       </c>
     </row>
     <row r="19">
@@ -1916,31 +1916,31 @@
         <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>21994</v>
+        <v>10997</v>
       </c>
       <c r="E19" t="n">
-        <v>938</v>
+        <v>469</v>
       </c>
       <c r="F19" t="n">
-        <v>226</v>
+        <v>113</v>
       </c>
       <c r="G19" t="n">
-        <v>1180</v>
+        <v>590</v>
       </c>
       <c r="H19" t="n">
-        <v>752</v>
+        <v>376</v>
       </c>
       <c r="I19" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="J19" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K19" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="L19" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -1979,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>25238</v>
+        <v>12619</v>
       </c>
     </row>
     <row r="20">
@@ -1995,31 +1995,31 @@
         <v>7</v>
       </c>
       <c r="D20" t="n">
-        <v>31386</v>
+        <v>15693</v>
       </c>
       <c r="E20" t="n">
-        <v>1224</v>
+        <v>612</v>
       </c>
       <c r="F20" t="n">
-        <v>622</v>
+        <v>311</v>
       </c>
       <c r="G20" t="n">
-        <v>1874</v>
+        <v>937</v>
       </c>
       <c r="H20" t="n">
-        <v>1940</v>
+        <v>970</v>
       </c>
       <c r="I20" t="n">
-        <v>342</v>
+        <v>171</v>
       </c>
       <c r="J20" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K20" t="n">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="L20" t="n">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>37608</v>
+        <v>18804</v>
       </c>
     </row>
     <row r="21">
@@ -2074,34 +2074,34 @@
         <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>41746</v>
+        <v>20873</v>
       </c>
       <c r="E21" t="n">
-        <v>1278</v>
+        <v>639</v>
       </c>
       <c r="F21" t="n">
-        <v>698</v>
+        <v>349</v>
       </c>
       <c r="G21" t="n">
-        <v>3046</v>
+        <v>1523</v>
       </c>
       <c r="H21" t="n">
-        <v>2502</v>
+        <v>1251</v>
       </c>
       <c r="I21" t="n">
-        <v>270</v>
+        <v>135</v>
       </c>
       <c r="J21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="L21" t="n">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="M21" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>49662</v>
+        <v>24831</v>
       </c>
     </row>
     <row r="22">
@@ -2153,31 +2153,31 @@
         <v>9</v>
       </c>
       <c r="D22" t="n">
-        <v>21096</v>
+        <v>10548</v>
       </c>
       <c r="E22" t="n">
-        <v>608</v>
+        <v>304</v>
       </c>
       <c r="F22" t="n">
-        <v>322</v>
+        <v>161</v>
       </c>
       <c r="G22" t="n">
-        <v>1152</v>
+        <v>576</v>
       </c>
       <c r="H22" t="n">
-        <v>974</v>
+        <v>487</v>
       </c>
       <c r="I22" t="n">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="J22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K22" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L22" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -2216,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>24336</v>
+        <v>12168</v>
       </c>
     </row>
     <row r="23">
@@ -2232,31 +2232,31 @@
         <v>10</v>
       </c>
       <c r="D23" t="n">
-        <v>11960</v>
+        <v>5980</v>
       </c>
       <c r="E23" t="n">
-        <v>412</v>
+        <v>206</v>
       </c>
       <c r="F23" t="n">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="G23" t="n">
-        <v>790</v>
+        <v>395</v>
       </c>
       <c r="H23" t="n">
-        <v>410</v>
+        <v>205</v>
       </c>
       <c r="I23" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="J23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="L23" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>13746</v>
+        <v>6873</v>
       </c>
     </row>
     <row r="24">
@@ -2311,22 +2311,22 @@
         <v>11</v>
       </c>
       <c r="D24" t="n">
-        <v>2330</v>
+        <v>1165</v>
       </c>
       <c r="E24" t="n">
-        <v>164</v>
+        <v>82</v>
       </c>
       <c r="F24" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G24" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="H24" t="n">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="I24" t="n">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>2776</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="25">
@@ -2390,32 +2390,32 @@
         <v>12</v>
       </c>
       <c r="D25" t="n">
-        <v>958</v>
+        <v>479</v>
       </c>
       <c r="E25" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F25" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="G25" t="n">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="H25" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="I25" t="n">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="J25" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="n">
         <v>2</v>
       </c>
-      <c r="L25" t="n">
-        <v>4</v>
-      </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>1336</v>
+        <v>668</v>
       </c>
     </row>
     <row r="26">
@@ -2469,31 +2469,31 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>518</v>
+        <v>259</v>
       </c>
       <c r="E26" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F26" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G26" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H26" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="I26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>648</v>
+        <v>324</v>
       </c>
     </row>
     <row r="27">
@@ -2548,31 +2548,31 @@
         <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>570</v>
+        <v>285</v>
       </c>
       <c r="E27" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="H27" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="I27" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>702</v>
+        <v>351</v>
       </c>
     </row>
     <row r="28">
@@ -2627,31 +2627,31 @@
         <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>1888</v>
+        <v>944</v>
       </c>
       <c r="E28" t="n">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="F28" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G28" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="H28" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="I28" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>2192</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="29">
@@ -2706,31 +2706,31 @@
         <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>11080</v>
+        <v>5540</v>
       </c>
       <c r="E29" t="n">
-        <v>716</v>
+        <v>358</v>
       </c>
       <c r="F29" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="G29" t="n">
-        <v>2170</v>
+        <v>1085</v>
       </c>
       <c r="H29" t="n">
-        <v>582</v>
+        <v>291</v>
       </c>
       <c r="I29" t="n">
-        <v>164</v>
+        <v>82</v>
       </c>
       <c r="J29" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K29" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L29" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>14902</v>
+        <v>7451</v>
       </c>
     </row>
     <row r="30">
@@ -2785,31 +2785,31 @@
         <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>16924</v>
+        <v>8462</v>
       </c>
       <c r="E30" t="n">
-        <v>1076</v>
+        <v>538</v>
       </c>
       <c r="F30" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="G30" t="n">
-        <v>1236</v>
+        <v>618</v>
       </c>
       <c r="H30" t="n">
-        <v>604</v>
+        <v>302</v>
       </c>
       <c r="I30" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="J30" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="K30" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L30" t="n">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>20294</v>
+        <v>10147</v>
       </c>
     </row>
     <row r="31">
@@ -2864,31 +2864,31 @@
         <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>22280</v>
+        <v>11140</v>
       </c>
       <c r="E31" t="n">
-        <v>1042</v>
+        <v>521</v>
       </c>
       <c r="F31" t="n">
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="G31" t="n">
-        <v>1378</v>
+        <v>689</v>
       </c>
       <c r="H31" t="n">
-        <v>912</v>
+        <v>456</v>
       </c>
       <c r="I31" t="n">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="J31" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K31" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L31" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>26022</v>
+        <v>13011</v>
       </c>
     </row>
     <row r="32">
@@ -2943,31 +2943,31 @@
         <v>7</v>
       </c>
       <c r="D32" t="n">
-        <v>29434</v>
+        <v>14717</v>
       </c>
       <c r="E32" t="n">
-        <v>1428</v>
+        <v>714</v>
       </c>
       <c r="F32" t="n">
-        <v>656</v>
+        <v>328</v>
       </c>
       <c r="G32" t="n">
-        <v>2582</v>
+        <v>1291</v>
       </c>
       <c r="H32" t="n">
-        <v>2808</v>
+        <v>1404</v>
       </c>
       <c r="I32" t="n">
-        <v>422</v>
+        <v>211</v>
       </c>
       <c r="J32" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K32" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L32" t="n">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>37440</v>
+        <v>18720</v>
       </c>
     </row>
     <row r="33">
@@ -3022,31 +3022,31 @@
         <v>8</v>
       </c>
       <c r="D33" t="n">
-        <v>42930</v>
+        <v>21465</v>
       </c>
       <c r="E33" t="n">
-        <v>1374</v>
+        <v>687</v>
       </c>
       <c r="F33" t="n">
-        <v>1522</v>
+        <v>761</v>
       </c>
       <c r="G33" t="n">
-        <v>2848</v>
+        <v>1424</v>
       </c>
       <c r="H33" t="n">
-        <v>3132</v>
+        <v>1566</v>
       </c>
       <c r="I33" t="n">
-        <v>484</v>
+        <v>242</v>
       </c>
       <c r="J33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K33" t="n">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="L33" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>52366</v>
+        <v>26183</v>
       </c>
     </row>
     <row r="34">
@@ -3101,31 +3101,31 @@
         <v>9</v>
       </c>
       <c r="D34" t="n">
-        <v>22910</v>
+        <v>11455</v>
       </c>
       <c r="E34" t="n">
-        <v>612</v>
+        <v>306</v>
       </c>
       <c r="F34" t="n">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="G34" t="n">
-        <v>1358</v>
+        <v>679</v>
       </c>
       <c r="H34" t="n">
-        <v>1406</v>
+        <v>703</v>
       </c>
       <c r="I34" t="n">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="J34" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="K34" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L34" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -3164,7 +3164,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>26940</v>
+        <v>13470</v>
       </c>
     </row>
     <row r="35">
@@ -3180,31 +3180,31 @@
         <v>10</v>
       </c>
       <c r="D35" t="n">
-        <v>13112</v>
+        <v>6556</v>
       </c>
       <c r="E35" t="n">
-        <v>506</v>
+        <v>253</v>
       </c>
       <c r="F35" t="n">
-        <v>218</v>
+        <v>109</v>
       </c>
       <c r="G35" t="n">
-        <v>836</v>
+        <v>418</v>
       </c>
       <c r="H35" t="n">
-        <v>592</v>
+        <v>296</v>
       </c>
       <c r="I35" t="n">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="J35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K35" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L35" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>15400</v>
+        <v>7700</v>
       </c>
     </row>
     <row r="36">
@@ -3259,22 +3259,22 @@
         <v>11</v>
       </c>
       <c r="D36" t="n">
-        <v>2908</v>
+        <v>1454</v>
       </c>
       <c r="E36" t="n">
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="F36" t="n">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="G36" t="n">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="H36" t="n">
-        <v>202</v>
+        <v>101</v>
       </c>
       <c r="I36" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>3510</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="37">
@@ -3338,28 +3338,28 @@
         <v>12</v>
       </c>
       <c r="D37" t="n">
-        <v>1356</v>
+        <v>678</v>
       </c>
       <c r="E37" t="n">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="F37" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="G37" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="H37" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="I37" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -3401,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>1696</v>
+        <v>848</v>
       </c>
     </row>
     <row r="38">
@@ -3417,19 +3417,19 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>588</v>
+        <v>294</v>
       </c>
       <c r="E38" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F38" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G38" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="H38" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
     </row>
     <row r="39">
@@ -3496,31 +3496,31 @@
         <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>996</v>
+        <v>498</v>
       </c>
       <c r="E39" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F39" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G39" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="H39" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="I39" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>1330</v>
+        <v>665</v>
       </c>
     </row>
     <row r="40">
@@ -3575,31 +3575,31 @@
         <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>2810</v>
+        <v>1405</v>
       </c>
       <c r="E40" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="F40" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="G40" t="n">
-        <v>252</v>
+        <v>126</v>
       </c>
       <c r="H40" t="n">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="I40" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="L40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>3360</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="41">
@@ -3654,31 +3654,31 @@
         <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>12364</v>
+        <v>6182</v>
       </c>
       <c r="E41" t="n">
-        <v>896</v>
+        <v>448</v>
       </c>
       <c r="F41" t="n">
-        <v>352</v>
+        <v>176</v>
       </c>
       <c r="G41" t="n">
-        <v>1978</v>
+        <v>989</v>
       </c>
       <c r="H41" t="n">
-        <v>368</v>
+        <v>184</v>
       </c>
       <c r="I41" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="J41" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="K41" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L41" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>16230</v>
+        <v>8115</v>
       </c>
     </row>
     <row r="42">
@@ -3733,31 +3733,31 @@
         <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>21238</v>
+        <v>10619</v>
       </c>
       <c r="E42" t="n">
-        <v>1332</v>
+        <v>666</v>
       </c>
       <c r="F42" t="n">
-        <v>514</v>
+        <v>257</v>
       </c>
       <c r="G42" t="n">
-        <v>1626</v>
+        <v>813</v>
       </c>
       <c r="H42" t="n">
-        <v>788</v>
+        <v>394</v>
       </c>
       <c r="I42" t="n">
-        <v>210</v>
+        <v>105</v>
       </c>
       <c r="J42" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="K42" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="L42" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>25848</v>
+        <v>12924</v>
       </c>
     </row>
     <row r="43">
@@ -3812,31 +3812,31 @@
         <v>6</v>
       </c>
       <c r="D43" t="n">
-        <v>25698</v>
+        <v>12849</v>
       </c>
       <c r="E43" t="n">
-        <v>1040</v>
+        <v>520</v>
       </c>
       <c r="F43" t="n">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="G43" t="n">
-        <v>1664</v>
+        <v>832</v>
       </c>
       <c r="H43" t="n">
-        <v>1176</v>
+        <v>588</v>
       </c>
       <c r="I43" t="n">
-        <v>232</v>
+        <v>116</v>
       </c>
       <c r="J43" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K43" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="L43" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -3875,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>30364</v>
+        <v>15182</v>
       </c>
     </row>
     <row r="44">
@@ -3891,31 +3891,31 @@
         <v>7</v>
       </c>
       <c r="D44" t="n">
-        <v>31018</v>
+        <v>15509</v>
       </c>
       <c r="E44" t="n">
-        <v>1654</v>
+        <v>827</v>
       </c>
       <c r="F44" t="n">
-        <v>1138</v>
+        <v>569</v>
       </c>
       <c r="G44" t="n">
-        <v>2992</v>
+        <v>1496</v>
       </c>
       <c r="H44" t="n">
-        <v>2802</v>
+        <v>1401</v>
       </c>
       <c r="I44" t="n">
-        <v>506</v>
+        <v>253</v>
       </c>
       <c r="J44" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K44" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L44" t="n">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>40312</v>
+        <v>20156</v>
       </c>
     </row>
     <row r="45">
@@ -3970,31 +3970,31 @@
         <v>8</v>
       </c>
       <c r="D45" t="n">
-        <v>43272</v>
+        <v>21636</v>
       </c>
       <c r="E45" t="n">
-        <v>1432</v>
+        <v>716</v>
       </c>
       <c r="F45" t="n">
-        <v>1804</v>
+        <v>902</v>
       </c>
       <c r="G45" t="n">
-        <v>3766</v>
+        <v>1883</v>
       </c>
       <c r="H45" t="n">
-        <v>3626</v>
+        <v>1813</v>
       </c>
       <c r="I45" t="n">
-        <v>538</v>
+        <v>269</v>
       </c>
       <c r="J45" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="K45" t="n">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="L45" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>54578</v>
+        <v>27289</v>
       </c>
     </row>
     <row r="46">
@@ -4049,34 +4049,34 @@
         <v>9</v>
       </c>
       <c r="D46" t="n">
-        <v>25230</v>
+        <v>12615</v>
       </c>
       <c r="E46" t="n">
-        <v>918</v>
+        <v>459</v>
       </c>
       <c r="F46" t="n">
-        <v>702</v>
+        <v>351</v>
       </c>
       <c r="G46" t="n">
-        <v>1992</v>
+        <v>996</v>
       </c>
       <c r="H46" t="n">
-        <v>1374</v>
+        <v>687</v>
       </c>
       <c r="I46" t="n">
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="J46" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="K46" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L46" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="M46" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>30564</v>
+        <v>15282</v>
       </c>
     </row>
     <row r="47">
@@ -18412,6 +18412,85 @@
       </c>
       <c r="Y227" t="n">
         <v>4683</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="inlineStr">
+        <is>
+          <t>202301</t>
+        </is>
+      </c>
+      <c r="B228" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C228" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D228" t="n">
+        <v>1020</v>
+      </c>
+      <c r="E228" t="n">
+        <v>34</v>
+      </c>
+      <c r="F228" t="n">
+        <v>56</v>
+      </c>
+      <c r="G228" t="n">
+        <v>521</v>
+      </c>
+      <c r="H228" t="n">
+        <v>48</v>
+      </c>
+      <c r="I228" t="n">
+        <v>116</v>
+      </c>
+      <c r="J228" t="n">
+        <v>169</v>
+      </c>
+      <c r="K228" t="n">
+        <v>13</v>
+      </c>
+      <c r="L228" t="n">
+        <v>5</v>
+      </c>
+      <c r="M228" t="n">
+        <v>30</v>
+      </c>
+      <c r="N228" t="n">
+        <v>0</v>
+      </c>
+      <c r="O228" t="n">
+        <v>3</v>
+      </c>
+      <c r="P228" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q228" t="n">
+        <v>0</v>
+      </c>
+      <c r="R228" t="n">
+        <v>6</v>
+      </c>
+      <c r="S228" t="n">
+        <v>1</v>
+      </c>
+      <c r="T228" t="n">
+        <v>2</v>
+      </c>
+      <c r="U228" t="n">
+        <v>0</v>
+      </c>
+      <c r="V228" t="n">
+        <v>0</v>
+      </c>
+      <c r="W228" t="n">
+        <v>0</v>
+      </c>
+      <c r="X228" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y228" t="n">
+        <v>2028</v>
       </c>
     </row>
   </sheetData>
